--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -14,7 +14,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>27-02-2020</t>
+  </si>
+  <si>
+    <t>28-02-2020</t>
+  </si>
+  <si>
+    <t>29-02-2020</t>
+  </si>
+  <si>
+    <t>01-03-2020</t>
+  </si>
+  <si>
+    <t>02-03-2020</t>
+  </si>
   <si>
     <t>03-03-2020</t>
   </si>
@@ -413,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -435,157 +450,307 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>23</v>
+      </c>
+      <c r="J9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+      <c r="I10">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10">
+      <c r="J10">
         <v>23</v>
       </c>
     </row>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>27-02-2020</t>
   </si>
@@ -43,6 +43,9 @@
     <t>06-03-2020</t>
   </si>
   <si>
+    <t>07-03-2020</t>
+  </si>
+  <si>
     <t>Provincienaam</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Zeeland</t>
   </si>
   <si>
     <t>Zuid-Holland</t>
@@ -428,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -465,10 +471,13 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -497,10 +506,13 @@
       <c r="J2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -529,10 +541,13 @@
       <c r="J3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -561,10 +576,13 @@
       <c r="J4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -593,10 +611,13 @@
       <c r="J5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -625,10 +646,13 @@
       <c r="J6">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -657,10 +681,13 @@
       <c r="J7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -689,10 +716,13 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -721,10 +751,13 @@
       <c r="J9">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -733,25 +766,63 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
         <v>7</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>12</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>23</v>
+      </c>
+      <c r="K11">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>27-02-2020</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>07-03-2020</t>
+  </si>
+  <si>
+    <t>08-03-2020</t>
   </si>
   <si>
     <t>Provincienaam</t>
@@ -434,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -474,10 +477,13 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -509,10 +515,13 @@
       <c r="K2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -544,10 +553,13 @@
       <c r="K3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -579,10 +591,13 @@
       <c r="K4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -614,10 +629,13 @@
       <c r="K5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -649,10 +667,13 @@
       <c r="K6">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -684,10 +705,13 @@
       <c r="K7">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -719,10 +743,13 @@
       <c r="K8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -754,10 +781,13 @@
       <c r="K9">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -789,10 +819,13 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -823,6 +856,9 @@
       </c>
       <c r="K11">
         <v>29</v>
+      </c>
+      <c r="L11">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>27-02-2020</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>08-03-2020</t>
+  </si>
+  <si>
+    <t>09-03-2020</t>
   </si>
   <si>
     <t>Provincienaam</t>
@@ -437,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -480,10 +483,13 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -518,10 +524,13 @@
       <c r="L2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -556,10 +565,13 @@
       <c r="L3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -594,10 +606,13 @@
       <c r="L4">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -632,10 +647,13 @@
       <c r="L5">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -670,10 +688,13 @@
       <c r="L6">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -708,10 +729,13 @@
       <c r="L7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -746,10 +770,13 @@
       <c r="L8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -784,10 +811,13 @@
       <c r="L9">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -822,10 +852,13 @@
       <c r="L10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -859,6 +892,9 @@
       </c>
       <c r="L11">
         <v>34</v>
+      </c>
+      <c r="M11">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>27-02-2020</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>08-03-2020</t>
-  </si>
-  <si>
-    <t>09-03-2020</t>
   </si>
   <si>
     <t>Provincienaam</t>
@@ -440,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -483,13 +480,10 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -524,13 +518,10 @@
       <c r="L2">
         <v>8</v>
       </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -565,13 +556,10 @@
       <c r="L3">
         <v>2</v>
       </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -606,13 +594,10 @@
       <c r="L4">
         <v>26</v>
       </c>
-      <c r="M4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -647,13 +632,10 @@
       <c r="L5">
         <v>16</v>
       </c>
-      <c r="M5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -688,13 +670,10 @@
       <c r="L6">
         <v>93</v>
       </c>
-      <c r="M6">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -729,13 +708,10 @@
       <c r="L7">
         <v>22</v>
       </c>
-      <c r="M7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -770,13 +746,10 @@
       <c r="L8">
         <v>9</v>
       </c>
-      <c r="M8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -811,54 +784,48 @@
       <c r="L9">
         <v>52</v>
       </c>
-      <c r="M9">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -892,9 +859,6 @@
       </c>
       <c r="L11">
         <v>34</v>
-      </c>
-      <c r="M11">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>27-02-2020</t>
   </si>
@@ -52,6 +52,9 @@
     <t>09-03-2020</t>
   </si>
   <si>
+    <t>10-03-2020</t>
+  </si>
+  <si>
     <t>Provincienaam</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t>Flevoland</t>
+  </si>
+  <si>
+    <t>Friesland</t>
   </si>
   <si>
     <t>Gelderland</t>
@@ -440,15 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -486,10 +492,13 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -527,10 +536,13 @@
       <c r="M2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -568,10 +580,13 @@
       <c r="M3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -592,27 +607,30 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -633,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -642,259 +660,324 @@
         <v>10</v>
       </c>
       <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
         <v>11</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>16</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
+      <c r="N6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
+      <c r="I7">
+        <v>24</v>
+      </c>
+      <c r="J7">
+        <v>34</v>
+      </c>
+      <c r="K7">
+        <v>57</v>
+      </c>
+      <c r="L7">
+        <v>93</v>
+      </c>
+      <c r="M7">
+        <v>135</v>
+      </c>
+      <c r="N7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>23</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>23</v>
+      </c>
+      <c r="J10">
+        <v>33</v>
+      </c>
+      <c r="K10">
+        <v>47</v>
+      </c>
+      <c r="L10">
+        <v>52</v>
+      </c>
+      <c r="M10">
+        <v>52</v>
+      </c>
+      <c r="N10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
         <v>12</v>
       </c>
-      <c r="H6">
-        <v>17</v>
-      </c>
-      <c r="I6">
-        <v>24</v>
-      </c>
-      <c r="J6">
+      <c r="J12">
+        <v>23</v>
+      </c>
+      <c r="K12">
+        <v>29</v>
+      </c>
+      <c r="L12">
         <v>34</v>
       </c>
-      <c r="K6">
-        <v>57</v>
-      </c>
-      <c r="L6">
-        <v>93</v>
-      </c>
-      <c r="M6">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>17</v>
-      </c>
-      <c r="L7">
-        <v>22</v>
-      </c>
-      <c r="M7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>9</v>
-      </c>
-      <c r="M8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>23</v>
-      </c>
-      <c r="J9">
-        <v>33</v>
-      </c>
-      <c r="K9">
+      <c r="M12">
+        <v>37</v>
+      </c>
+      <c r="N12">
         <v>47</v>
-      </c>
-      <c r="L9">
-        <v>52</v>
-      </c>
-      <c r="M9">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <v>12</v>
-      </c>
-      <c r="J11">
-        <v>23</v>
-      </c>
-      <c r="K11">
-        <v>29</v>
-      </c>
-      <c r="L11">
-        <v>34</v>
-      </c>
-      <c r="M11">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>27-02-2020</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>09-03-2020</t>
-  </si>
-  <si>
-    <t>10-03-2020</t>
   </si>
   <si>
     <t>Provincienaam</t>
@@ -446,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -492,13 +489,10 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -536,13 +530,10 @@
       <c r="M2">
         <v>10</v>
       </c>
-      <c r="N2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -580,57 +571,51 @@
       <c r="M3">
         <v>2</v>
       </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -668,13 +653,10 @@
       <c r="M5">
         <v>27</v>
       </c>
-      <c r="N5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -712,13 +694,10 @@
       <c r="M6">
         <v>23</v>
       </c>
-      <c r="N6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -756,13 +735,10 @@
       <c r="M7">
         <v>135</v>
       </c>
-      <c r="N7">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -800,13 +776,10 @@
       <c r="M8">
         <v>23</v>
       </c>
-      <c r="N8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -844,13 +817,10 @@
       <c r="M9">
         <v>10</v>
       </c>
-      <c r="N9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -888,57 +858,51 @@
       <c r="M10">
         <v>52</v>
       </c>
-      <c r="N10">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -975,9 +939,6 @@
       </c>
       <c r="M12">
         <v>37</v>
-      </c>
-      <c r="N12">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>27-02-2020</t>
   </si>
@@ -52,6 +52,9 @@
     <t>09-03-2020</t>
   </si>
   <si>
+    <t>10-03-2020</t>
+  </si>
+  <si>
     <t>Provincienaam</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>Gelderland</t>
+  </si>
+  <si>
+    <t>Groningen</t>
   </si>
   <si>
     <t>Limburg</t>
@@ -443,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -489,10 +495,13 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -530,10 +539,13 @@
       <c r="M2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -571,10 +583,13 @@
       <c r="M3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -612,10 +627,13 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -653,292 +671,360 @@
       <c r="M5">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="M7">
+        <v>23</v>
+      </c>
+      <c r="N7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
+      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>34</v>
+      </c>
+      <c r="K8">
+        <v>57</v>
+      </c>
+      <c r="L8">
+        <v>93</v>
+      </c>
+      <c r="M8">
+        <v>135</v>
+      </c>
+      <c r="N8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
         <v>10</v>
       </c>
-      <c r="K6">
-        <v>11</v>
-      </c>
-      <c r="L6">
-        <v>16</v>
-      </c>
-      <c r="M6">
+      <c r="K9">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <v>22</v>
+      </c>
+      <c r="M9">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
+      <c r="N9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>23</v>
+      </c>
+      <c r="J11">
+        <v>33</v>
+      </c>
+      <c r="K11">
+        <v>47</v>
+      </c>
+      <c r="L11">
+        <v>52</v>
+      </c>
+      <c r="M11">
+        <v>52</v>
+      </c>
+      <c r="N11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
         <v>12</v>
       </c>
-      <c r="H7">
-        <v>17</v>
-      </c>
-      <c r="I7">
-        <v>24</v>
-      </c>
-      <c r="J7">
+      <c r="J13">
+        <v>23</v>
+      </c>
+      <c r="K13">
+        <v>29</v>
+      </c>
+      <c r="L13">
         <v>34</v>
       </c>
-      <c r="K7">
-        <v>57</v>
-      </c>
-      <c r="L7">
-        <v>93</v>
-      </c>
-      <c r="M7">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>17</v>
-      </c>
-      <c r="L8">
-        <v>22</v>
-      </c>
-      <c r="M8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9">
-        <v>9</v>
-      </c>
-      <c r="M9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>23</v>
-      </c>
-      <c r="J10">
-        <v>33</v>
-      </c>
-      <c r="K10">
+      <c r="M13">
+        <v>37</v>
+      </c>
+      <c r="N13">
         <v>47</v>
-      </c>
-      <c r="L10">
-        <v>52</v>
-      </c>
-      <c r="M10">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12">
-        <v>12</v>
-      </c>
-      <c r="J12">
-        <v>23</v>
-      </c>
-      <c r="K12">
-        <v>29</v>
-      </c>
-      <c r="L12">
-        <v>34</v>
-      </c>
-      <c r="M12">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>27-02-2020</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Provincienaam</t>
+  </si>
+  <si>
+    <t>Provinciecode</t>
   </si>
   <si>
     <t>Drenthe</t>
@@ -449,62 +452,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -513,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -534,21 +540,24 @@
         <v>3</v>
       </c>
       <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
         <v>8</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>10</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -569,10 +578,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -586,365 +595,392 @@
       <c r="N3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <v>27</v>
+      </c>
+      <c r="O5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
+      <c r="N7">
+        <v>23</v>
+      </c>
+      <c r="O7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
+      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>34</v>
+      </c>
+      <c r="L8">
+        <v>57</v>
+      </c>
+      <c r="M8">
+        <v>93</v>
+      </c>
+      <c r="N8">
+        <v>135</v>
+      </c>
+      <c r="O8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
         <v>10</v>
       </c>
-      <c r="K5">
-        <v>13</v>
-      </c>
-      <c r="L5">
-        <v>26</v>
-      </c>
-      <c r="M5">
-        <v>27</v>
-      </c>
-      <c r="N5">
+      <c r="L9">
+        <v>17</v>
+      </c>
+      <c r="M9">
+        <v>22</v>
+      </c>
+      <c r="N9">
+        <v>23</v>
+      </c>
+      <c r="O9">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>11</v>
-      </c>
-      <c r="L7">
-        <v>16</v>
-      </c>
-      <c r="M7">
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
-      <c r="H8">
-        <v>17</v>
-      </c>
-      <c r="I8">
-        <v>24</v>
-      </c>
-      <c r="J8">
-        <v>34</v>
-      </c>
-      <c r="K8">
-        <v>57</v>
-      </c>
-      <c r="L8">
-        <v>93</v>
-      </c>
-      <c r="M8">
-        <v>135</v>
-      </c>
-      <c r="N8">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>7</v>
-      </c>
-      <c r="I9">
+      <c r="B10" s="1">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
         <v>9</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <v>17</v>
-      </c>
-      <c r="L9">
-        <v>22</v>
-      </c>
-      <c r="M9">
-        <v>23</v>
-      </c>
-      <c r="N9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>9</v>
-      </c>
-      <c r="M10">
-        <v>10</v>
       </c>
       <c r="N10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
         <v>23</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>23</v>
-      </c>
-      <c r="J11">
+      <c r="K11">
         <v>33</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>47</v>
-      </c>
-      <c r="L11">
-        <v>52</v>
       </c>
       <c r="M11">
         <v>52</v>
       </c>
       <c r="N11">
+        <v>52</v>
+      </c>
+      <c r="O11">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>29</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -971,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -980,50 +1016,56 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="1">
+        <v>28</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
         <v>7</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>12</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>23</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>29</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>34</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>37</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>47</v>
       </c>
     </row>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -55,10 +55,10 @@
     <t>10-03-2020</t>
   </si>
   <si>
+    <t>Provinciecode</t>
+  </si>
+  <si>
     <t>Provincienaam</t>
-  </si>
-  <si>
-    <t>Provinciecode</t>
   </si>
   <si>
     <t>Drenthe</t>
@@ -506,11 +506,11 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="1">
-        <v>22</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -553,12 +553,12 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1">
-        <v>24</v>
-      </c>
       <c r="C3">
         <v>0</v>
       </c>
@@ -600,12 +600,12 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1">
-        <v>21</v>
-      </c>
       <c r="C4">
         <v>0</v>
       </c>
@@ -647,11 +647,11 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="1">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="1">
-        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -694,58 +694,58 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="1">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1">
-        <v>31</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -788,11 +788,11 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="1">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="1">
-        <v>30</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -835,11 +835,11 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="1">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="1">
-        <v>27</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -882,10 +882,10 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="1">
         <v>23</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10">
@@ -929,11 +929,11 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="1">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="1">
-        <v>26</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -976,12 +976,12 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="1">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1">
-        <v>29</v>
-      </c>
       <c r="C12">
         <v>0</v>
       </c>
@@ -1023,11 +1023,11 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="1">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="1">
-        <v>28</v>
       </c>
       <c r="C13">
         <v>0</v>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>27-02-2020</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>10-03-2020</t>
+  </si>
+  <si>
+    <t>11-03-2020</t>
   </si>
   <si>
     <t>Provinciecode</t>
@@ -452,18 +455,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -504,13 +507,16 @@
       <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -551,13 +557,16 @@
       <c r="O2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -598,13 +607,16 @@
       <c r="O3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -645,13 +657,16 @@
       <c r="O4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -692,13 +707,16 @@
       <c r="O5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -739,13 +757,16 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -786,13 +807,16 @@
       <c r="O7">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -833,13 +857,16 @@
       <c r="O8">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -880,13 +907,16 @@
       <c r="O9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -927,13 +957,16 @@
       <c r="O10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -974,13 +1007,16 @@
       <c r="O11">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1021,13 +1057,16 @@
       <c r="O12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1067,6 +1106,9 @@
       </c>
       <c r="O13">
         <v>47</v>
+      </c>
+      <c r="P13">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>27-02-2020</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>11-03-2020</t>
+  </si>
+  <si>
+    <t>12-03-2020</t>
   </si>
   <si>
     <t>Provinciecode</t>
@@ -455,18 +458,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -510,13 +513,16 @@
       <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -560,13 +566,16 @@
       <c r="P2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -610,13 +619,16 @@
       <c r="P3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -660,13 +672,16 @@
       <c r="P4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -710,13 +725,16 @@
       <c r="P5">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -760,13 +778,16 @@
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -810,13 +831,16 @@
       <c r="P7">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -860,13 +884,16 @@
       <c r="P8">
         <v>218</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -910,13 +937,16 @@
       <c r="P9">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -960,13 +990,16 @@
       <c r="P10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1010,13 +1043,16 @@
       <c r="P11">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1060,13 +1096,16 @@
       <c r="P12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1109,6 +1148,9 @@
       </c>
       <c r="P13">
         <v>57</v>
+      </c>
+      <c r="Q13">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_province.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>27-02-2020</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>12-03-2020</t>
+  </si>
+  <si>
+    <t>13-03-2020</t>
   </si>
   <si>
     <t>Provinciecode</t>
@@ -458,18 +461,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -516,13 +519,16 @@
       <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -569,13 +575,16 @@
       <c r="Q2">
         <v>13</v>
       </c>
+      <c r="R2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -622,13 +631,16 @@
       <c r="Q3">
         <v>3</v>
       </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -675,13 +687,16 @@
       <c r="Q4">
         <v>6</v>
       </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -728,13 +743,16 @@
       <c r="Q5">
         <v>48</v>
       </c>
+      <c r="R5">
+        <v>64</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -781,13 +799,16 @@
       <c r="Q6">
         <v>3</v>
       </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -834,13 +855,16 @@
       <c r="Q7">
         <v>53</v>
       </c>
+      <c r="R7">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -887,13 +911,16 @@
       <c r="Q8">
         <v>266</v>
       </c>
+      <c r="R8">
+        <v>360</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -940,13 +967,16 @@
       <c r="Q9">
         <v>42</v>
       </c>
+      <c r="R9">
+        <v>63</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -993,13 +1023,16 @@
       <c r="Q10">
         <v>13</v>
       </c>
+      <c r="R10">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1046,13 +1079,16 @@
       <c r="Q11">
         <v>80</v>
       </c>
+      <c r="R11">
+        <v>83</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1099,13 +1135,16 @@
       <c r="Q12">
         <v>9</v>
       </c>
+      <c r="R12">
+        <v>9</v>
+      </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1151,6 +1190,9 @@
       </c>
       <c r="Q13">
         <v>65</v>
+      </c>
+      <c r="R13">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
